--- a/BuildingInfo.xlsx
+++ b/BuildingInfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>Building Info</t>
   </si>
@@ -206,21 +206,6 @@
     <t>Zrobienie dokumentacji dla 7 klas</t>
   </si>
   <si>
-    <t>pierwsza klasa</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">druga klasa </t>
-  </si>
-  <si>
-    <t>trzecia klasa</t>
-  </si>
-  <si>
-    <t>czwarta klasa</t>
-  </si>
-  <si>
     <t>piąta klasa</t>
   </si>
   <si>
@@ -231,6 +216,12 @@
   </si>
   <si>
     <t>Stworzenie 2 klas testujących</t>
+  </si>
+  <si>
+    <t>pierwsza klasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">druga klasa </t>
   </si>
   <si>
     <t>Stworzenie 2 klas testujących wykorzystujących mock</t>
@@ -308,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -406,6 +397,9 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14064,7 +14058,9 @@
         <v>20</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="6"/>
@@ -14080,9 +14076,9 @@
         <v>51</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="8">
-        <f>SUM(C8:C14)</f>
-        <v>0</v>
+      <c r="C7" s="34">
+        <f>SUM(C8:C10)</f>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -14090,144 +14086,118 @@
       <c r="B8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>53</v>
+      <c r="C8" s="34">
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>53</v>
+      <c r="C9" s="34">
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="6"/>
-      <c r="B11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>53</v>
+      <c r="B11" s="9"/>
+      <c r="C11" s="34">
+        <f>SUM(C12:C13)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>53</v>
+      <c r="C12" s="8">
+        <v>0.5</v>
       </c>
       <c r="F12" s="15"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>53</v>
+      <c r="B14" s="9"/>
+      <c r="C14" s="14">
+        <f>SUM(C15:C16)</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9" t="s">
-        <v>59</v>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="9" t="s">
+        <v>56</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>53</v>
+      <c r="C15" s="8">
+        <v>1.0</v>
       </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="9" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="14"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="6"/>
-      <c r="B19" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="8">
+      <c r="C16" s="8">
         <v>1.0</v>
       </c>
     </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="8"/>
+    </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9" t="s">
-        <v>54</v>
+      <c r="A20" s="20"/>
+      <c r="B20" s="18" t="s">
+        <v>49</v>
       </c>
       <c r="C20" s="8">
-        <v>1.0</v>
+        <f>SUM(C5,C7,C11,C14)</f>
+        <v>6.5</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="9"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="14">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="8">
-        <f>SUM(C6:C22)</f>
-        <v>5</v>
-      </c>
-    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="19"/>
       <c r="B25" s="17"/>
